--- a/Template/Template_Criminal.xlsx
+++ b/Template/Template_Criminal.xlsx
@@ -20,14 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">รายชื่อผู้ตรวจสอบประวัติอาชญากรรม</t>
   </si>
   <si>
+    <t xml:space="preserve">ปี/เดือน</t>
+  </si>
+  <si>
     <t xml:space="preserve">ลำดับ</t>
   </si>
   <si>
+    <t xml:space="preserve">บริษัท</t>
+  </si>
+  <si>
     <t xml:space="preserve">ชื่อ-ชื่อสกุล</t>
   </si>
   <si>
@@ -40,7 +46,7 @@
     <t xml:space="preserve">ชื่อบิดา-มารดา</t>
   </si>
   <si>
-    <t xml:space="preserve">ที่อยู่ปัจจุบันและภูมิลำเนา</t>
+    <t xml:space="preserve">ที่อยู่ปัจจุบัน</t>
   </si>
 </sst>
 </file>
@@ -231,24 +237,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="49.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -261,34 +268,62 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Template/Template_Criminal.xlsx
+++ b/Template/Template_Criminal.xlsx
@@ -99,7 +99,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +108,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,7 +168,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,7 +196,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -185,11 +205,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -207,7 +227,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -240,7 +260,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,53 +291,53 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Template/Template_Criminal.xlsx
+++ b/Template/Template_Criminal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">รายชื่อผู้ตรวจสอบประวัติอาชญากรรม</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">ชื่อบิดา-มารดา</t>
   </si>
   <si>
-    <t xml:space="preserve">ที่อยู่ปัจจุบัน</t>
+    <t xml:space="preserve">ที่อยู่ตามภูมิลำเนา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผลการตรวจสอบ</t>
   </si>
 </sst>
 </file>
@@ -259,8 +262,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,7 +275,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="49.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,6 +344,9 @@
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
